--- a/spreadsheets_final/marinegeo_spreadsheet_sediment_organic_matter.xlsx
+++ b/spreadsheets_final/marinegeo_spreadsheet_sediment_organic_matter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Dropbox (Smithsonian)\marinegeo\Research\Modules\Seagrasses\sediment-organic-matter\Spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\spreadsheets_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB77DA3-62C1-4468-B441-E84478320A70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B2FBCE-61F1-49E3-8A27-5DA56D876B1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol_metadata" sheetId="1" r:id="rId1"/>
@@ -296,9 +296,6 @@
     <t>site_code</t>
   </si>
   <si>
-    <t>v0.4.0</t>
-  </si>
-  <si>
     <t>data_entry_day</t>
   </si>
   <si>
@@ -380,6 +377,9 @@
       <t xml:space="preserve">
 MarineGEO spreadsheets follow a standard format, each consisting of several sheets: protocol metadata, sample metadata, sample data, and a glossary. Metadata for each column can be found by selecting the header cell for that column, or in the glossary sheet. Please do not add or rename columns. Use note columns to provide additional information or context. </t>
     </r>
+  </si>
+  <si>
+    <t>v0.5.0</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1233,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="161.1" customHeight="1">
       <c r="B1" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1">
@@ -1258,19 +1258,19 @@
     </row>
     <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="11"/>
     </row>
@@ -1291,7 +1291,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.950000000000003" customHeight="1">
@@ -1417,13 +1417,13 @@
         <v>71</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L1" s="32" t="s">
         <v>48</v>
       </c>
       <c r="M1" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1781,13 +1781,13 @@
         <v>72</v>
       </c>
       <c r="F1" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="33" t="s">
-        <v>94</v>
-      </c>
       <c r="H1" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>73</v>
@@ -1802,7 +1802,7 @@
         <v>75</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2226,16 +2226,16 @@
         <v>58</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -2244,16 +2244,16 @@
         <v>58</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -2262,16 +2262,16 @@
         <v>58</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -2536,10 +2536,10 @@
         <v>60</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>17</v>
@@ -2555,7 +2555,7 @@
         <v>48</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>17</v>
@@ -2568,10 +2568,10 @@
         <v>60</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>17</v>
@@ -2682,10 +2682,10 @@
         <v>61</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="36" t="s">
         <v>17</v>
@@ -2698,10 +2698,10 @@
         <v>61</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>17</v>
@@ -2714,10 +2714,10 @@
         <v>61</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>17</v>
@@ -2810,10 +2810,10 @@
         <v>61</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>92</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>17</v>
